--- a/DTT time tracker.xlsx
+++ b/DTT time tracker.xlsx
@@ -1370,7 +1370,7 @@
         <v>73</v>
       </c>
       <c r="B37" s="41">
-        <v>94.0</v>
+        <v>84.0</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
